--- a/GL150_TestData_InquireonJournalLines_21B.xlsx
+++ b/GL150_TestData_InquireonJournalLines_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GL Scripts Batch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93DBC11-BAB2-4651-A43F-14FA6E227B8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9AB197-23B8-4A3F-AA03-AB9690893F02}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>UserName</t>
   </si>
@@ -61,9 +59,6 @@
     <t>All</t>
   </si>
   <si>
-    <t>JournalLines</t>
-  </si>
-  <si>
     <t>AccountingPrd</t>
   </si>
   <si>
@@ -73,15 +68,9 @@
     <t>1000003</t>
   </si>
   <si>
-    <t>DataAccessSet</t>
-  </si>
-  <si>
     <t>ToAccountingPrd</t>
   </si>
   <si>
-    <t>Aug-2019 Purchase Invoices</t>
-  </si>
-  <si>
     <t>LowWait</t>
   </si>
   <si>
@@ -106,19 +95,19 @@
     <t>HighestExplicitWait</t>
   </si>
   <si>
-    <t>GNB Consol</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>31863</t>
-  </si>
-  <si>
     <t>2019-11</t>
   </si>
   <si>
     <t>2020-11</t>
+  </si>
+  <si>
+    <t>GNB Corporate</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>23052</t>
   </si>
 </sst>
 </file>
@@ -192,15 +181,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,144 +516,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="17" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="44.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="26.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="17" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="44.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="I2" s="3">
         <v>10</v>
       </c>
-      <c r="D2" s="3">
+      <c r="J2" s="3">
         <v>20</v>
       </c>
-      <c r="E2" s="3">
+      <c r="K2" s="3">
         <v>15</v>
       </c>
-      <c r="F2" s="3">
+      <c r="L2" s="3">
         <v>30</v>
       </c>
-      <c r="G2" s="3">
+      <c r="M2" s="3">
         <v>60</v>
       </c>
-      <c r="H2" s="3">
+      <c r="N2" s="3">
         <v>120</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -676,12 +663,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
